--- a/Resultados_LLMS.xlsx
+++ b/Resultados_LLMS.xlsx
@@ -425,10 +425,10 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -698,6 +698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -987,6 +988,9 @@
       </c>
     </row>
   </sheetData>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>
